--- a/Data/HistoricalData.xlsx
+++ b/Data/HistoricalData.xlsx
@@ -25,28 +25,28 @@
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flipkart Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flipkart Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flipkart Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Review Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flipkart Review Count</t>
+    <t xml:space="preserve">AmazonPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipkartPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmazonDiscount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipkartDiscount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmazonRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipkartRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmazonReviewCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipkartReviewCount</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
@@ -1049,13 +1049,13 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="16.3"/>
   </cols>
   <sheetData>

--- a/Data/HistoricalData.xlsx
+++ b/Data/HistoricalData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -70,6 +70,15 @@
     <t xml:space="preserve">NykaaAvailability</t>
   </si>
   <si>
+    <t xml:space="preserve">AmazonProductID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipkartProductID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NykaaProductID</t>
+  </si>
+  <si>
     <t xml:space="preserve">ExtractionDate</t>
   </si>
   <si>
@@ -98,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">In stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B091HTLXL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSLEFFGXKSA9QXRN</t>
   </si>
   <si>
     <t xml:space="preserve">₹2649.01</t>
@@ -496,31 +511,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="0" width="14.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -569,22 +584,31 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0.23</v>
@@ -596,48 +620,57 @@
         <v>0.11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T2" s="5" t="n">
         <v>44965</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0.24</v>
@@ -649,48 +682,57 @@
         <v>0.12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="5" t="n">
+      <c r="S3" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T3" s="5" t="n">
         <v>44966</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0.25</v>
@@ -702,48 +744,57 @@
         <v>0.13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T4" s="5" t="n">
         <v>44967</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0.26</v>
@@ -755,48 +806,57 @@
         <v>0.14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T5" s="5" t="n">
         <v>44968</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0.27</v>
@@ -808,48 +868,57 @@
         <v>0.15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T6" s="5" t="n">
         <v>44969</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0.28</v>
@@ -861,48 +930,57 @@
         <v>0.16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T7" s="5" t="n">
         <v>44970</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0.29</v>
@@ -914,48 +992,57 @@
         <v>0.17</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T8" s="5" t="n">
         <v>44971</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0.3</v>
@@ -967,48 +1054,57 @@
         <v>0.18</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T9" s="5" t="n">
         <v>44972</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0.31</v>
@@ -1020,48 +1116,57 @@
         <v>0.19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T10" s="5" t="n">
         <v>44973</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0.32</v>
@@ -1073,48 +1178,57 @@
         <v>0.2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T11" s="5" t="n">
         <v>44974</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0.33</v>
@@ -1126,48 +1240,57 @@
         <v>0.21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T12" s="5" t="n">
         <v>44975</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0.34</v>
@@ -1179,48 +1302,57 @@
         <v>0.22</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T13" s="5" t="n">
         <v>44976</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0.35</v>
@@ -1232,48 +1364,57 @@
         <v>0.23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T14" s="5" t="n">
         <v>44977</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0.36</v>
@@ -1285,33 +1426,42 @@
         <v>0.24</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>6783517</v>
+      </c>
+      <c r="T15" s="5" t="n">
         <v>44978</v>
       </c>
     </row>

--- a/Data/HistoricalData.xlsx
+++ b/Data/HistoricalData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">3.8 out of 5 stars</t>
   </si>
   <si>
+    <t xml:space="preserve">4.2 out of 5 stars</t>
+  </si>
+  <si>
     <t xml:space="preserve">6690 ratings</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t xml:space="preserve">₹2629.01</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6691 ratings</t>
   </si>
   <si>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">₹2629.02</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6692 ratings</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t xml:space="preserve">₹2629.03</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6693 ratings</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t xml:space="preserve">₹2629.04</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6694 ratings</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t xml:space="preserve">₹2629.05</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6695 ratings</t>
   </si>
   <si>
@@ -229,9 +217,6 @@
     <t xml:space="preserve">₹2629.06</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6696 ratings</t>
   </si>
   <si>
@@ -250,9 +235,6 @@
     <t xml:space="preserve">₹2629.07</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6697 ratings</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t xml:space="preserve">₹2629.08</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6698 ratings</t>
   </si>
   <si>
@@ -292,9 +271,6 @@
     <t xml:space="preserve">₹2629.09</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6699 ratings</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t xml:space="preserve">₹2629.10</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6700 ratings</t>
   </si>
   <si>
@@ -334,9 +307,6 @@
     <t xml:space="preserve">₹2629.11</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6701 ratings</t>
   </si>
   <si>
@@ -355,9 +325,6 @@
     <t xml:space="preserve">₹2629.12</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6702 ratings</t>
   </si>
   <si>
@@ -374,9 +341,6 @@
   </si>
   <si>
     <t xml:space="preserve">₹2629.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8 out of 5 stars</t>
   </si>
   <si>
     <t xml:space="preserve">6703 ratings</t>
@@ -513,21 +477,21 @@
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.47"/>
@@ -626,31 +590,31 @@
         <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>6783517</v>
@@ -664,13 +628,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0.24</v>
@@ -688,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>35</v>
@@ -700,19 +664,19 @@
         <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>6783517</v>
@@ -750,31 +714,31 @@
         <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>6783517</v>
@@ -788,13 +752,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0.26</v>
@@ -812,31 +776,31 @@
         <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="N5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>6783517</v>
@@ -850,13 +814,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0.27</v>
@@ -874,31 +838,31 @@
         <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="N6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>6783517</v>
@@ -912,13 +876,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0.28</v>
@@ -936,31 +900,31 @@
         <v>24</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>6783517</v>
@@ -974,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0.29</v>
@@ -998,31 +962,31 @@
         <v>24</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>6783517</v>
@@ -1036,13 +1000,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0.3</v>
@@ -1060,31 +1024,31 @@
         <v>24</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>6783517</v>
@@ -1098,13 +1062,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0.31</v>
@@ -1122,31 +1086,31 @@
         <v>24</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S10" s="1" t="n">
         <v>6783517</v>
@@ -1160,13 +1124,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0.32</v>
@@ -1184,31 +1148,31 @@
         <v>24</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S11" s="1" t="n">
         <v>6783517</v>
@@ -1222,13 +1186,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0.33</v>
@@ -1246,31 +1210,31 @@
         <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>6783517</v>
@@ -1284,13 +1248,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0.34</v>
@@ -1308,31 +1272,31 @@
         <v>24</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S13" s="1" t="n">
         <v>6783517</v>
@@ -1346,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0.35</v>
@@ -1370,31 +1334,31 @@
         <v>24</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S14" s="1" t="n">
         <v>6783517</v>
@@ -1408,13 +1372,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0.36</v>
@@ -1432,31 +1396,31 @@
         <v>24</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S15" s="1" t="n">
         <v>6783517</v>

--- a/Data/HistoricalData.xlsx
+++ b/Data/HistoricalData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="87">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -94,12 +94,15 @@
     <t xml:space="preserve">MuscleBlaze Protein</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.00</t>
+    <t xml:space="preserve">₹1241.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.00</t>
   </si>
   <si>
+    <t xml:space="preserve">₹1141.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.8 out of 5 stars</t>
   </si>
   <si>
@@ -133,45 +136,60 @@
     <t xml:space="preserve">1kg</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.01</t>
+    <t xml:space="preserve">₹1251.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.01</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.02</t>
+    <t xml:space="preserve">₹1151.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹1261.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.02</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.03</t>
+    <t xml:space="preserve">₹1161.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹1271.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.03</t>
   </si>
   <si>
+    <t xml:space="preserve">₹1171.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">61572 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.04</t>
+    <t xml:space="preserve">₹1281.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.04</t>
   </si>
   <si>
+    <t xml:space="preserve">₹1181.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.1 out of 5 stars</t>
   </si>
   <si>
     <t xml:space="preserve">61573 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.05</t>
+    <t xml:space="preserve">₹1291.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.05</t>
   </si>
   <si>
+    <t xml:space="preserve">₹1191.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.85 out of 5 stars</t>
   </si>
   <si>
@@ -181,7 +199,10 @@
     <t xml:space="preserve">14 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.06</t>
+    <t xml:space="preserve">₹1301.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹1201.00</t>
   </si>
   <si>
     <t xml:space="preserve">3.4 out of 5 stars</t>
@@ -190,16 +211,19 @@
     <t xml:space="preserve">61575 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.07</t>
+    <t xml:space="preserve">₹1311.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.06</t>
   </si>
   <si>
+    <t xml:space="preserve">₹1211.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">61576 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.08</t>
+    <t xml:space="preserve">₹1351.00</t>
   </si>
   <si>
     <t xml:space="preserve">3.9 out of 5 stars</t>
@@ -214,7 +238,7 @@
     <t xml:space="preserve">15 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.09</t>
+    <t xml:space="preserve">₹1451.00</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.07</t>
@@ -229,25 +253,16 @@
     <t xml:space="preserve">61578 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.10</t>
-  </si>
-  <si>
     <t xml:space="preserve">₹1299.09</t>
   </si>
   <si>
     <t xml:space="preserve">10285 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">₹1349.11</t>
-  </si>
-  <si>
     <t xml:space="preserve">₹1299.10</t>
   </si>
   <si>
     <t xml:space="preserve">10286 ratings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">₹1349.12</t>
   </si>
   <si>
     <t xml:space="preserve">₹1299.13</t>
@@ -410,18 +425,18 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2:V15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.63"/>
@@ -515,7 +530,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0.09</v>
@@ -527,49 +542,49 @@
         <v>0.28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>6783517</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" s="7" t="n">
         <v>44965</v>
@@ -580,13 +595,13 @@
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">E2+1%</f>
@@ -601,31 +616,31 @@
         <v>0.29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f aca="false">Q2</f>
@@ -640,13 +655,13 @@
         <v>6783517</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" s="7" t="n">
         <v>44966</v>
@@ -657,13 +672,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">E3+1%</f>
@@ -678,31 +693,31 @@
         <v>0.3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="str">
         <f aca="false">Q3</f>
@@ -717,13 +732,13 @@
         <v>6783517</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" s="7" t="n">
         <v>44967</v>
@@ -734,13 +749,13 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">E4+1%</f>
@@ -755,31 +770,31 @@
         <v>0.31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f aca="false">Q4</f>
@@ -794,13 +809,13 @@
         <v>6783517</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" s="7" t="n">
         <v>44968</v>
@@ -811,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">E5+1%</f>
@@ -832,31 +847,31 @@
         <v>0.32</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="str">
         <f aca="false">Q5</f>
@@ -871,13 +886,13 @@
         <v>6783517</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" s="7" t="n">
         <v>44969</v>
@@ -888,13 +903,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">E6+1%</f>
@@ -909,31 +924,31 @@
         <v>0.33</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f aca="false">Q6</f>
@@ -948,13 +963,13 @@
         <v>6783517</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W7" s="7" t="n">
         <v>44970</v>
@@ -965,13 +980,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">E7+1%</f>
@@ -986,31 +1001,31 @@
         <v>0.34</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="str">
         <f aca="false">Q7</f>
@@ -1025,13 +1040,13 @@
         <v>6783517</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W8" s="7" t="n">
         <v>44971</v>
@@ -1042,13 +1057,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">E8+1%</f>
@@ -1063,31 +1078,31 @@
         <v>0.35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="str">
         <f aca="false">Q8</f>
@@ -1102,13 +1117,13 @@
         <v>6783517</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W9" s="7" t="n">
         <v>44972</v>
@@ -1119,13 +1134,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">E9+1%</f>
@@ -1140,31 +1155,31 @@
         <v>0.36</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="str">
         <f aca="false">Q9</f>
@@ -1179,13 +1194,13 @@
         <v>6783517</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" s="7" t="n">
         <v>44973</v>
@@ -1196,13 +1211,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">E10+1%</f>
@@ -1217,31 +1232,31 @@
         <v>0.37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f aca="false">Q10</f>
@@ -1256,13 +1271,13 @@
         <v>6783517</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" s="7" t="n">
         <v>44974</v>
@@ -1273,13 +1288,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">E11+1%</f>
@@ -1294,31 +1309,31 @@
         <v>0.38</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f aca="false">Q11</f>
@@ -1333,13 +1348,13 @@
         <v>6783517</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W12" s="7" t="n">
         <v>44975</v>
@@ -1350,13 +1365,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">E12+1%</f>
@@ -1371,31 +1386,31 @@
         <v>0.39</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="str">
         <f aca="false">Q12</f>
@@ -1410,13 +1425,13 @@
         <v>6783517</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W13" s="7" t="n">
         <v>44976</v>
@@ -1427,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">E13+1%</f>
@@ -1448,31 +1463,31 @@
         <v>0.4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="str">
         <f aca="false">Q13</f>
@@ -1487,13 +1502,13 @@
         <v>6783517</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W14" s="7" t="n">
         <v>44977</v>
@@ -1504,13 +1519,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">E14+1%</f>
@@ -1525,31 +1540,31 @@
         <v>0.41</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="str">
         <f aca="false">Q14</f>
@@ -1564,13 +1579,13 @@
         <v>6783517</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W15" s="7" t="n">
         <v>44978</v>

--- a/Data/HistoricalData.xlsx
+++ b/Data/HistoricalData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -190,9 +190,6 @@
     <t xml:space="preserve">₹1191.00</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">61574 ratings</t>
   </si>
   <si>
@@ -220,15 +217,15 @@
     <t xml:space="preserve">₹1211.00</t>
   </si>
   <si>
+    <t xml:space="preserve">3.9 out of 5 stars</t>
+  </si>
+  <si>
     <t xml:space="preserve">61576 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">₹1351.00</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9 out of 5 stars</t>
-  </si>
-  <si>
     <t xml:space="preserve">10281 ratings</t>
   </si>
   <si>
@@ -281,6 +278,174 @@
   </si>
   <si>
     <t xml:space="preserve">10289 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MuscleBlaze Biozyme Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2631.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2629.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8251 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10998 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B091HTLXL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSLGFSY3FKSMGZVZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2630.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8253 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11002 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2632.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8256 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2633.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8257 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11008 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2634.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2635.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8258 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11010 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8259 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11013 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2636.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8260 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11014 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2637.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8261 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11020 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2638.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 out of 5 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8263 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11025 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2639.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8268 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11028 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2640.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8271 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2641.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8272 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11029 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2643.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2644.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8275 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11030 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2647.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2648.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹2649.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8281 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11031 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 ratings</t>
   </si>
 </sst>
 </file>
@@ -373,12 +538,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,11 +563,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,17 +595,17 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.63"/>
@@ -445,7 +614,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="24" style="0" width="11.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -550,13 +718,13 @@
       <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -586,7 +754,7 @@
       <c r="V2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="7" t="n">
+      <c r="W2" s="6" t="n">
         <v>44965</v>
       </c>
     </row>
@@ -624,13 +792,13 @@
       <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -663,7 +831,7 @@
       <c r="V3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="W3" s="6" t="n">
         <v>44966</v>
       </c>
     </row>
@@ -701,13 +869,13 @@
       <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -740,7 +908,7 @@
       <c r="V4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="7" t="n">
+      <c r="W4" s="6" t="n">
         <v>44967</v>
       </c>
     </row>
@@ -778,13 +946,13 @@
       <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -817,7 +985,7 @@
       <c r="V5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="W5" s="6" t="n">
         <v>44968</v>
       </c>
     </row>
@@ -855,13 +1023,13 @@
       <c r="J6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -894,7 +1062,7 @@
       <c r="V6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="W6" s="6" t="n">
         <v>44969</v>
       </c>
     </row>
@@ -924,7 +1092,7 @@
         <v>0.33</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>51</v>
@@ -932,14 +1100,14 @@
       <c r="J7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>33</v>
@@ -971,7 +1139,7 @@
       <c r="V7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="W7" s="6" t="n">
         <v>44970</v>
       </c>
     </row>
@@ -980,13 +1148,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">E7+1%</f>
@@ -1001,22 +1169,22 @@
         <v>0.34</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>58</v>
+      <c r="M8" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>33</v>
@@ -1048,7 +1216,7 @@
       <c r="V8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="7" t="n">
+      <c r="W8" s="6" t="n">
         <v>44971</v>
       </c>
     </row>
@@ -1057,13 +1225,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">E8+1%</f>
@@ -1078,22 +1246,22 @@
         <v>0.35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>58</v>
+      <c r="M9" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>33</v>
@@ -1125,7 +1293,7 @@
       <c r="V9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W9" s="7" t="n">
+      <c r="W9" s="6" t="n">
         <v>44972</v>
       </c>
     </row>
@@ -1137,7 +1305,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
@@ -1155,22 +1323,22 @@
         <v>0.36</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>33</v>
@@ -1202,7 +1370,7 @@
       <c r="V10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="7" t="n">
+      <c r="W10" s="6" t="n">
         <v>44973</v>
       </c>
     </row>
@@ -1211,10 +1379,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -1232,22 +1400,22 @@
         <v>0.37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>71</v>
+      <c r="M11" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>33</v>
@@ -1279,7 +1447,7 @@
       <c r="V11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="7" t="n">
+      <c r="W11" s="6" t="n">
         <v>44974</v>
       </c>
     </row>
@@ -1291,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>67</v>
@@ -1309,22 +1477,22 @@
         <v>0.38</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>33</v>
@@ -1356,7 +1524,7 @@
       <c r="V12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="W12" s="6" t="n">
         <v>44975</v>
       </c>
     </row>
@@ -1368,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>67</v>
@@ -1389,19 +1557,19 @@
         <v>28</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>33</v>
@@ -1433,7 +1601,7 @@
       <c r="V13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="7" t="n">
+      <c r="W13" s="6" t="n">
         <v>44976</v>
       </c>
     </row>
@@ -1445,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>67</v>
@@ -1466,19 +1634,19 @@
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>33</v>
@@ -1510,7 +1678,7 @@
       <c r="V14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="W14" s="6" t="n">
         <v>44977</v>
       </c>
     </row>
@@ -1519,13 +1687,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">E14+1%</f>
@@ -1543,19 +1711,19 @@
         <v>28</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>83</v>
+        <v>60</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>33</v>
@@ -1587,25 +1755,1078 @@
       <c r="V15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="7" t="n">
+      <c r="W15" s="6" t="n">
         <v>44978</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>1411711</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <f aca="false">E16+1%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <f aca="false">F16+1%</f>
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <f aca="false">G16+1%</f>
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="7" t="str">
+        <f aca="false">R16</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <f aca="false">S16</f>
+        <v>1411711</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <f aca="false">E17+1%</f>
+        <v>0.11</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <f aca="false">F17+1%</f>
+        <v>0.11</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <f aca="false">G17+1%</f>
+        <v>0.11</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="7" t="str">
+        <f aca="false">R17</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S18" s="7" t="n">
+        <f aca="false">S17</f>
+        <v>1411711</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <f aca="false">E18+1%</f>
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <f aca="false">F18+1%</f>
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <f aca="false">G18+1%</f>
+        <v>0.12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="7" t="str">
+        <f aca="false">R18</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <f aca="false">S18</f>
+        <v>1411711</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <f aca="false">E19+1%</f>
+        <v>0.13</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <f aca="false">F19+1%</f>
+        <v>0.13</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <f aca="false">G19+1%</f>
+        <v>0.13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="7" t="str">
+        <f aca="false">R19</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <f aca="false">S19</f>
+        <v>1411711</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">E20+1%</f>
+        <v>0.14</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <f aca="false">F20+1%</f>
+        <v>0.14</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <f aca="false">G20+1%</f>
+        <v>0.14</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R21" s="7" t="str">
+        <f aca="false">R20</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <f aca="false">S20</f>
+        <v>1411711</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <f aca="false">E21+1%</f>
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <f aca="false">F21+1%</f>
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <f aca="false">G21+1%</f>
+        <v>0.15</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R22" s="7" t="str">
+        <f aca="false">R21</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <f aca="false">S21</f>
+        <v>1411711</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <f aca="false">E22+1%</f>
+        <v>0.16</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <f aca="false">F22+1%</f>
+        <v>0.16</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <f aca="false">G22+1%</f>
+        <v>0.16</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R23" s="7" t="str">
+        <f aca="false">R22</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S23" s="7" t="n">
+        <f aca="false">S22</f>
+        <v>1411711</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">E23+1%</f>
+        <v>0.17</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">F23+1%</f>
+        <v>0.17</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">G23+1%</f>
+        <v>0.17</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="7" t="str">
+        <f aca="false">R23</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S24" s="7" t="n">
+        <f aca="false">S23</f>
+        <v>1411711</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <f aca="false">E24+1%</f>
+        <v>0.18</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">F24+1%</f>
+        <v>0.18</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <f aca="false">G24+1%</f>
+        <v>0.18</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R25" s="7" t="str">
+        <f aca="false">R24</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S25" s="7" t="n">
+        <f aca="false">S24</f>
+        <v>1411711</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <f aca="false">E25+1%</f>
+        <v>0.19</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <f aca="false">F25+1%</f>
+        <v>0.19</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <f aca="false">G25+1%</f>
+        <v>0.19</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R26" s="7" t="str">
+        <f aca="false">R25</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <f aca="false">S25</f>
+        <v>1411711</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <f aca="false">E26+1%</f>
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <f aca="false">F26+1%</f>
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <f aca="false">G26+1%</f>
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" s="7" t="str">
+        <f aca="false">R26</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S27" s="7" t="n">
+        <f aca="false">S26</f>
+        <v>1411711</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <f aca="false">E27+1%</f>
+        <v>0.21</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <f aca="false">F27+1%</f>
+        <v>0.21</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <f aca="false">G27+1%</f>
+        <v>0.21</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="7" t="str">
+        <f aca="false">R27</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S28" s="7" t="n">
+        <f aca="false">S27</f>
+        <v>1411711</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="6" t="n">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <f aca="false">E28+1%</f>
+        <v>0.22</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <f aca="false">F28+1%</f>
+        <v>0.22</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <f aca="false">G28+1%</f>
+        <v>0.22</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" s="7" t="str">
+        <f aca="false">R28</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S29" s="7" t="n">
+        <f aca="false">S28</f>
+        <v>1411711</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" s="6" t="n">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="K30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="6"/>
+    </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1796,786 +3017,786 @@
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/Data/HistoricalData.xlsx
+++ b/Data/HistoricalData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="133">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -280,6 +280,9 @@
     <t xml:space="preserve">10289 ratings</t>
   </si>
   <si>
+    <t xml:space="preserve">₹1,349</t>
+  </si>
+  <si>
     <t xml:space="preserve">MuscleBlaze Biozyme Protein</t>
   </si>
   <si>
@@ -289,7 +292,7 @@
     <t xml:space="preserve">₹2629.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8251 ratings</t>
+    <t xml:space="preserve">2360 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">10998 ratings</t>
@@ -307,27 +310,18 @@
     <t xml:space="preserve">₹2630.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8253 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11002 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">₹2632.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8256 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">29 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">₹2633.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8257 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11008 ratings</t>
   </si>
   <si>
@@ -337,36 +331,24 @@
     <t xml:space="preserve">₹2635.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8258 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11010 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">30 ratings</t>
   </si>
   <si>
-    <t xml:space="preserve">8259 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11013 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">₹2636.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8260 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11014 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">₹2637.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8261 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11020 ratings</t>
   </si>
   <si>
@@ -379,7 +361,7 @@
     <t xml:space="preserve">4.3 out of 5 stars</t>
   </si>
   <si>
-    <t xml:space="preserve">8263 ratings</t>
+    <t xml:space="preserve">2361 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">11025 ratings</t>
@@ -388,9 +370,6 @@
     <t xml:space="preserve">₹2639.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8268 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11028 ratings</t>
   </si>
   <si>
@@ -400,18 +379,12 @@
     <t xml:space="preserve">₹2640.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8271 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">₹2641.00</t>
   </si>
   <si>
     <t xml:space="preserve">4.4 out of 5 stars</t>
   </si>
   <si>
-    <t xml:space="preserve">8272 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11029 ratings</t>
   </si>
   <si>
@@ -424,7 +397,7 @@
     <t xml:space="preserve">₹2644.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8275 ratings</t>
+    <t xml:space="preserve">2366 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">11030 ratings</t>
@@ -439,24 +412,25 @@
     <t xml:space="preserve">₹2649.00</t>
   </si>
   <si>
-    <t xml:space="preserve">8281 ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">11031 ratings</t>
   </si>
   <si>
     <t xml:space="preserve">34 ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11049 ratings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -496,12 +470,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -538,7 +518,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,7 +547,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,20 +596,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X31" activeCellId="0" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.63"/>
@@ -1759,101 +1763,102 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="C16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <f aca="false">E15+1%</f>
+        <v>0.23</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>1411711</v>
-      </c>
-      <c r="T16" s="2" t="s">
+      <c r="I16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="11" t="str">
+        <f aca="false">Q15</f>
+        <v>B0791H11NF</v>
+      </c>
+      <c r="R16" s="11" t="str">
+        <f aca="false">R15</f>
+        <v>PSLFFN96NBXVFGF5</v>
+      </c>
+      <c r="S16" s="11" t="n">
+        <f aca="false">S15</f>
+        <v>6783517</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V16" s="2" t="s">
+      <c r="U16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>44965</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" s="4" t="n">
-        <f aca="false">E16+1%</f>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F17" s="4" t="n">
-        <f aca="false">F16+1%</f>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G17" s="4" t="n">
-        <f aca="false">G16+1%</f>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>27</v>
@@ -1865,13 +1870,13 @@
         <v>27</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>33</v>
@@ -1883,14 +1888,12 @@
         <v>33</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R17" s="7" t="str">
-        <f aca="false">R16</f>
-        <v>PSLGFSY3FKSMGZVZ</v>
-      </c>
-      <c r="S17" s="7" t="n">
-        <f aca="false">S16</f>
+        <v>93</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>1411711</v>
       </c>
       <c r="T17" s="2" t="s">
@@ -1903,33 +1906,33 @@
         <v>37</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>44966</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E18" s="4" t="n">
         <f aca="false">E17+1%</f>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">F17+1%</f>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">G17+1%</f>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>27</v>
@@ -1941,13 +1944,13 @@
         <v>27</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>33</v>
@@ -1959,13 +1962,13 @@
         <v>33</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R18" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R18" s="13" t="str">
         <f aca="false">R17</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S18" s="7" t="n">
+      <c r="S18" s="13" t="n">
         <f aca="false">S17</f>
         <v>1411711</v>
       </c>
@@ -1979,51 +1982,51 @@
         <v>37</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E19" s="4" t="n">
         <f aca="false">E18+1%</f>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">F18+1%</f>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G19" s="4" t="n">
         <f aca="false">G18+1%</f>
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>33</v>
@@ -2035,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R19" s="13" t="str">
         <f aca="false">R18</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="S19" s="13" t="n">
         <f aca="false">S18</f>
         <v>1411711</v>
       </c>
@@ -2055,33 +2058,33 @@
         <v>37</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>44968</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">E19+1%</f>
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">F19+1%</f>
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">G19+1%</f>
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>65</v>
@@ -2093,13 +2096,13 @@
         <v>65</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>33</v>
@@ -2111,13 +2114,13 @@
         <v>33</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R20" s="13" t="str">
         <f aca="false">R19</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S20" s="7" t="n">
+      <c r="S20" s="13" t="n">
         <f aca="false">S19</f>
         <v>1411711</v>
       </c>
@@ -2131,51 +2134,51 @@
         <v>37</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>44969</v>
+        <v>44968</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="4" t="n">
         <f aca="false">E20+1%</f>
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">F20+1%</f>
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G21" s="4" t="n">
         <f aca="false">G20+1%</f>
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>33</v>
@@ -2187,13 +2190,13 @@
         <v>33</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R21" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R21" s="13" t="str">
         <f aca="false">R20</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S21" s="7" t="n">
+      <c r="S21" s="13" t="n">
         <f aca="false">S20</f>
         <v>1411711</v>
       </c>
@@ -2207,33 +2210,33 @@
         <v>37</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>44970</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="n">
         <f aca="false">E21+1%</f>
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">F21+1%</f>
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G22" s="4" t="n">
         <f aca="false">G21+1%</f>
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>28</v>
@@ -2245,13 +2248,13 @@
         <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>33</v>
@@ -2263,13 +2266,13 @@
         <v>33</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R22" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R22" s="13" t="str">
         <f aca="false">R21</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S22" s="7" t="n">
+      <c r="S22" s="13" t="n">
         <f aca="false">S21</f>
         <v>1411711</v>
       </c>
@@ -2283,33 +2286,33 @@
         <v>37</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>44971</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E23" s="4" t="n">
         <f aca="false">E22+1%</f>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">F22+1%</f>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">G22+1%</f>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>28</v>
@@ -2321,13 +2324,13 @@
         <v>28</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>115</v>
+        <v>90</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>33</v>
@@ -2339,13 +2342,13 @@
         <v>33</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R23" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R23" s="13" t="str">
         <f aca="false">R22</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S23" s="7" t="n">
+      <c r="S23" s="13" t="n">
         <f aca="false">S22</f>
         <v>1411711</v>
       </c>
@@ -2359,51 +2362,51 @@
         <v>37</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">E23+1%</f>
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">F23+1%</f>
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">G23+1%</f>
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>33</v>
@@ -2415,13 +2418,13 @@
         <v>33</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R24" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R24" s="13" t="str">
         <f aca="false">R23</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S24" s="7" t="n">
+      <c r="S24" s="13" t="n">
         <f aca="false">S23</f>
         <v>1411711</v>
       </c>
@@ -2435,51 +2438,51 @@
         <v>37</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>44973</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E25" s="4" t="n">
         <f aca="false">E24+1%</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">F24+1%</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">G24+1%</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>33</v>
@@ -2491,13 +2494,13 @@
         <v>33</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R25" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R25" s="13" t="str">
         <f aca="false">R24</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S25" s="7" t="n">
+      <c r="S25" s="13" t="n">
         <f aca="false">S24</f>
         <v>1411711</v>
       </c>
@@ -2511,51 +2514,51 @@
         <v>37</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>44974</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E26" s="4" t="n">
         <f aca="false">E25+1%</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">F25+1%</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">G25+1%</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>33</v>
@@ -2567,13 +2570,13 @@
         <v>33</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R26" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R26" s="13" t="str">
         <f aca="false">R25</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S26" s="7" t="n">
+      <c r="S26" s="13" t="n">
         <f aca="false">S25</f>
         <v>1411711</v>
       </c>
@@ -2587,51 +2590,51 @@
         <v>37</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>44975</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">E26+1%</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">F26+1%</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">G26+1%</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>73</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>33</v>
@@ -2643,13 +2646,13 @@
         <v>33</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R27" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R27" s="13" t="str">
         <f aca="false">R26</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S27" s="7" t="n">
+      <c r="S27" s="13" t="n">
         <f aca="false">S26</f>
         <v>1411711</v>
       </c>
@@ -2663,51 +2666,51 @@
         <v>37</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>44976</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">E27+1%</f>
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">F27+1%</f>
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">G27+1%</f>
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>73</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>135</v>
+        <v>113</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>33</v>
@@ -2719,13 +2722,13 @@
         <v>33</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R28" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R28" s="13" t="str">
         <f aca="false">R27</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S28" s="7" t="n">
+      <c r="S28" s="13" t="n">
         <f aca="false">S27</f>
         <v>1411711</v>
       </c>
@@ -2739,51 +2742,51 @@
         <v>37</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>44977</v>
+        <v>44976</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">E28+1%</f>
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">F28+1%</f>
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">G28+1%</f>
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>33</v>
@@ -2795,13 +2798,13 @@
         <v>33</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R29" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="R29" s="13" t="str">
         <f aca="false">R28</f>
         <v>PSLGFSY3FKSMGZVZ</v>
       </c>
-      <c r="S29" s="7" t="n">
+      <c r="S29" s="13" t="n">
         <f aca="false">S28</f>
         <v>1411711</v>
       </c>
@@ -2815,19 +2818,158 @@
         <v>37</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>44978</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="K30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="6"/>
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <f aca="false">E29+1%</f>
+        <v>0.22</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <f aca="false">F29+1%</f>
+        <v>0.22</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <f aca="false">G29+1%</f>
+        <v>0.22</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R30" s="13" t="str">
+        <f aca="false">R29</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S30" s="13" t="n">
+        <f aca="false">S29</f>
+        <v>1411711</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>44978</v>
+      </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R31" s="13" t="str">
+        <f aca="false">R30</f>
+        <v>PSLGFSY3FKSMGZVZ</v>
+      </c>
+      <c r="S31" s="13" t="n">
+        <f aca="false">S30</f>
+        <v>1411711</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" s="6" t="n">
+        <v>44987</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3017,7 +3159,7 @@
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3797,6 +3939,7 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
